--- a/Rulers/США.xlsx
+++ b/Rulers/США.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="566">
   <si>
     <t>person</t>
   </si>
@@ -310,18 +310,9 @@
     <t>Калвин Кулидж</t>
   </si>
   <si>
-    <t>Q140686</t>
-  </si>
-  <si>
-    <t>Q1162163</t>
-  </si>
-  <si>
     <t>Q11696</t>
   </si>
   <si>
-    <t>Q121998</t>
-  </si>
-  <si>
     <t>Q1540336</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>Q18691526</t>
   </si>
   <si>
-    <t>Q1542521</t>
-  </si>
-  <si>
     <t>Q18534307</t>
   </si>
   <si>
@@ -358,24 +346,12 @@
     <t>Q13218630</t>
   </si>
   <si>
-    <t>Q1640949</t>
-  </si>
-  <si>
     <t>Q783785</t>
   </si>
   <si>
     <t>Q887010</t>
   </si>
   <si>
-    <t>Q7889414</t>
-  </si>
-  <si>
-    <t>Q950262</t>
-  </si>
-  <si>
-    <t>Q2841904</t>
-  </si>
-  <si>
     <t>Q17342542</t>
   </si>
   <si>
@@ -394,21 +370,9 @@
     <t>Q18694588</t>
   </si>
   <si>
-    <t>Q326552</t>
-  </si>
-  <si>
     <t>Q1515730</t>
   </si>
   <si>
-    <t>Q1940122</t>
-  </si>
-  <si>
-    <t>Q7013056</t>
-  </si>
-  <si>
-    <t>Q7889281</t>
-  </si>
-  <si>
     <t>Q5253588</t>
   </si>
   <si>
@@ -424,21 +388,12 @@
     <t>Q1227524</t>
   </si>
   <si>
-    <t>Q7889282</t>
-  </si>
-  <si>
-    <t>Q1785225</t>
-  </si>
-  <si>
     <t>Q880198</t>
   </si>
   <si>
     <t>Q1115127</t>
   </si>
   <si>
-    <t>Q30461</t>
-  </si>
-  <si>
     <t>Q20058778</t>
   </si>
   <si>
@@ -448,9 +403,6 @@
     <t>Q5589725</t>
   </si>
   <si>
-    <t>Q255125</t>
-  </si>
-  <si>
     <t>Q3112728</t>
   </si>
   <si>
@@ -463,18 +415,12 @@
     <t>Q1660669</t>
   </si>
   <si>
+    <t>Q11147</t>
+  </si>
+  <si>
     <t>Q2298067</t>
   </si>
   <si>
-    <t>Q23930172</t>
-  </si>
-  <si>
-    <t>Q11147</t>
-  </si>
-  <si>
-    <t>Q18060652</t>
-  </si>
-  <si>
     <t>Q20058776</t>
   </si>
   <si>
@@ -487,18 +433,9 @@
     <t>Q887117</t>
   </si>
   <si>
-    <t>председатель</t>
-  </si>
-  <si>
-    <t>директор</t>
-  </si>
-  <si>
     <t>президент США</t>
   </si>
   <si>
-    <t>посол</t>
-  </si>
-  <si>
     <t>губернатор Арканзаса</t>
   </si>
   <si>
@@ -514,9 +451,6 @@
     <t>член Сената штата Нью-Йорк</t>
   </si>
   <si>
-    <t>Генерал-губернатор Филиппин</t>
-  </si>
-  <si>
     <t>член Сената Теннесси</t>
   </si>
   <si>
@@ -535,24 +469,12 @@
     <t>член Палаты представителей США</t>
   </si>
   <si>
-    <t>главнокомандующий Объединёнными Вооружёнными силами НАТО в Европе</t>
-  </si>
-  <si>
     <t>Начальник штаба сухопутных войск США</t>
   </si>
   <si>
     <t>губернатор Калифорнии</t>
   </si>
   <si>
-    <t>посол США в Нидерландах</t>
-  </si>
-  <si>
-    <t>посол США во Франции</t>
-  </si>
-  <si>
-    <t>посол США в Великобритании</t>
-  </si>
-  <si>
     <t>член Палаты представителей Массачусетса</t>
   </si>
   <si>
@@ -571,21 +493,9 @@
     <t>член Палаты представителей США из Виргинии</t>
   </si>
   <si>
-    <t>посол США в Германии</t>
-  </si>
-  <si>
     <t>посол США в России</t>
   </si>
   <si>
-    <t>Великий мастер</t>
-  </si>
-  <si>
-    <t>Attorney General of New York</t>
-  </si>
-  <si>
-    <t>посол США в Колумбии</t>
-  </si>
-  <si>
     <t>non-voting member of the US House of Representatives</t>
   </si>
   <si>
@@ -601,21 +511,12 @@
     <t>директор Центральной разведки</t>
   </si>
   <si>
-    <t>Список послов США в КНР</t>
-  </si>
-  <si>
-    <t>постоянный представитель США при ООН</t>
-  </si>
-  <si>
     <t>Список губернаторов Джорджии</t>
   </si>
   <si>
     <t>командующий Армией Соединенных Штатов</t>
   </si>
   <si>
-    <t>президент</t>
-  </si>
-  <si>
     <t>сенатор штата Иллинойс</t>
   </si>
   <si>
@@ -625,9 +526,6 @@
     <t>губернатор Техаса</t>
   </si>
   <si>
-    <t>President of Princeton University</t>
-  </si>
-  <si>
     <t>губернатор Нью-Джерси</t>
   </si>
   <si>
@@ -640,18 +538,12 @@
     <t>вице-губернатор Огайо</t>
   </si>
   <si>
+    <t>председатель Верховного суда США</t>
+  </si>
+  <si>
     <t>генеральный солиситор США</t>
   </si>
   <si>
-    <t>Judge of the United States Court of Appeals for the Federal Circuit</t>
-  </si>
-  <si>
-    <t>председатель Верховного суда США</t>
-  </si>
-  <si>
-    <t>губернатор Кубы</t>
-  </si>
-  <si>
     <t>член Сената Массачусетса</t>
   </si>
   <si>
@@ -664,36 +556,36 @@
     <t>губернатор Массачусетса</t>
   </si>
   <si>
+    <t>2017-01-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1979-01-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1977-01-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1983-01-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1993-01-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1929-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1913-03-17T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1911-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1933-03-04T00:00:00Z</t>
+  </si>
+  <si>
     <t>не указано</t>
   </si>
   <si>
-    <t>2017-01-20T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1979-01-09T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1977-01-03T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1983-01-11T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1993-01-20T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1929-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1913-03-17T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1911-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1933-03-04T00:00:00Z</t>
-  </si>
-  <si>
     <t>1875-03-04T00:00:00Z</t>
   </si>
   <si>
@@ -742,9 +634,6 @@
     <t>1953-01-03T00:00:00Z</t>
   </si>
   <si>
-    <t>1951-04-02T00:00:00Z</t>
-  </si>
-  <si>
     <t>1945-11-19T00:00:00Z</t>
   </si>
   <si>
@@ -769,33 +658,18 @@
     <t>1789-04-21T00:00:00Z</t>
   </si>
   <si>
-    <t>1782-04-19T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1788-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1785-04-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1770-06-01T00:00:00Z</t>
   </si>
   <si>
     <t>1811-04-02T00:00:00Z</t>
   </si>
   <si>
-    <t>1803-08-17T00:00:00Z</t>
-  </si>
-  <si>
     <t>1817-03-04T00:00:00Z</t>
   </si>
   <si>
     <t>1814-09-27T00:00:00Z</t>
   </si>
   <si>
-    <t>1794-08-15T00:00:00Z</t>
-  </si>
-  <si>
     <t>1799-12-28T00:00:00Z</t>
   </si>
   <si>
@@ -805,9 +679,6 @@
     <t>1779-06-01T00:00:00Z</t>
   </si>
   <si>
-    <t>1785-01-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1790-03-22T00:00:00Z</t>
   </si>
   <si>
@@ -826,9 +697,6 @@
     <t>1803-03-04T00:00:00Z</t>
   </si>
   <si>
-    <t>1814-04-28T00:00:00Z</t>
-  </si>
-  <si>
     <t>1825-03-04T00:00:00Z</t>
   </si>
   <si>
@@ -838,9 +706,6 @@
     <t>1823-03-04T00:00:00Z</t>
   </si>
   <si>
-    <t>1822-01-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1829-03-04T00:00:00Z</t>
   </si>
   <si>
@@ -853,9 +718,6 @@
     <t>1821-03-04T00:00:00Z</t>
   </si>
   <si>
-    <t>1815-02-17T00:00:00Z</t>
-  </si>
-  <si>
     <t>1829-01-01T00:00:00Z</t>
   </si>
   <si>
@@ -865,9 +727,6 @@
     <t>1829-03-28T00:00:00Z</t>
   </si>
   <si>
-    <t>1828-05-24T00:00:00Z</t>
-  </si>
-  <si>
     <t>1841-03-04T00:00:00Z</t>
   </si>
   <si>
@@ -925,15 +784,9 @@
     <t>1976-01-30T00:00:00Z</t>
   </si>
   <si>
-    <t>1974-09-26T00:00:00Z</t>
-  </si>
-  <si>
     <t>1989-01-20T00:00:00Z</t>
   </si>
   <si>
-    <t>1971-03-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1967-01-03T00:00:00Z</t>
   </si>
   <si>
@@ -946,9 +799,6 @@
     <t>1798-07-13T00:00:00Z</t>
   </si>
   <si>
-    <t>1783-06-19T00:00:00Z</t>
-  </si>
-  <si>
     <t>1789-04-30T00:00:00Z</t>
   </si>
   <si>
@@ -994,9 +844,6 @@
     <t>1913-03-04T00:00:00Z</t>
   </si>
   <si>
-    <t>1902-01-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1911-01-17T00:00:00Z</t>
   </si>
   <si>
@@ -1048,15 +895,9 @@
     <t>1881-09-19T00:00:00Z</t>
   </si>
   <si>
-    <t>1901-07-04T00:00:00Z</t>
-  </si>
-  <si>
     <t>1921-07-11T00:00:00Z</t>
   </si>
   <si>
-    <t>1906-09-29T00:00:00Z</t>
-  </si>
-  <si>
     <t>1904-02-01T00:00:00Z</t>
   </si>
   <si>
@@ -1168,9 +1009,6 @@
     <t>http://www.wikidata.org/value/95219b87a7e84c79f9c1a97ccdcdcd86</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/bc1477ec6774ef66cfc43b63abe3a51e</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/df5f4ac4daf737605265b23432f8e707</t>
   </si>
   <si>
@@ -1195,33 +1033,18 @@
     <t>http://www.wikidata.org/value/303d92d4e5183e391f3bfc052289f50e</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/aa4524264602770081736ba1ec57deed</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/value/01c9878db500f538d77dc669f5aadedf</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/value/22d1dafb0bbdd151b7b74c5e77846e99</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/99187bcd7713798f482d9ceba71d1704</t>
   </si>
   <si>
     <t>http://www.wikidata.org/value/402b66c0313c4e4e14967577989c9350</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/bb817a9006a4d538c7eb98e8c6233c82</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/adab639dd001090ce8be62bea1debee9</t>
   </si>
   <si>
     <t>http://www.wikidata.org/value/0abe0e41ad18cda072ed7180f76daadc</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/3e09bc20c4f14617c27fe6adcdea61be</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/43e363228d1b8d4a9d55046f5ea8a36e</t>
   </si>
   <si>
@@ -1231,9 +1054,6 @@
     <t>http://www.wikidata.org/value/80cf8490d72b9b17acd2a6fcabca4016</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/6dd7e778e2c489cdc572b31c7ada1baa</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/dcf8b7d77ffadbcc3d41b916dcca8885</t>
   </si>
   <si>
@@ -1252,9 +1072,6 @@
     <t>http://www.wikidata.org/value/a779cbc605c9ae13849aa5f6675e214a</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/b1736dd20dafec327531aeb49a98b91e</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/ca797e73467ad85e4e30e19712890aa8</t>
   </si>
   <si>
@@ -1264,9 +1081,6 @@
     <t>http://www.wikidata.org/value/e572bb9a8ad169aa0bcbbe01dedf0f6f</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/6a74afff67365e730e2d6223c849b203</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/e1416f10309d8edeea16544bcc7749eb</t>
   </si>
   <si>
@@ -1279,9 +1093,6 @@
     <t>http://www.wikidata.org/value/d6ac9f5960c8f99dc1b9cd7a2289984d</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/6d5a102ad2f00dd1fcf6e60809ae9077</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/300090e1cc6dde1d55ce00089d3aa263</t>
   </si>
   <si>
@@ -1291,9 +1102,6 @@
     <t>http://www.wikidata.org/value/ee33e4523328296e532d0449a5b96aa3</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/8be91b42fcf5298741e2ab2adeb8c8e6</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/b09347b1beac16650e6cd35eb19dfbf8</t>
   </si>
   <si>
@@ -1354,15 +1162,9 @@
     <t>http://www.wikidata.org/value/d35ab0710c243def4a881577b0ca6238</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/ab89a488a78cf41e6a3d4a68c412c182</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/4d19a9baa9e47ad7c047ad3819835e94</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/42077eb8d05e6b9ce016e658b3526183</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/e5798bd6ed1c0f87b9a27b0cb36d24b3</t>
   </si>
   <si>
@@ -1375,9 +1177,6 @@
     <t>http://www.wikidata.org/value/5398f9388241693f5de1990f819394fb</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/136affe5b9a570299ebb95b025f9cd76</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/7f8876e6520023e2fb70c1c93bdc8453</t>
   </si>
   <si>
@@ -1423,9 +1222,6 @@
     <t>http://www.wikidata.org/value/47dace6a47cd987de57fdb8ffa1cef4e</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/5fa53e557b4920f3fe1d69d48b05cc9c</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/a0bd9f47aaad9a276ed963c1cf91dd40</t>
   </si>
   <si>
@@ -1477,15 +1273,9 @@
     <t>http://www.wikidata.org/value/454b565053d856c0e3a904b7c627ad49</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/a3735cf037625ec2b3eb393e1d633ade</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/f6523ce4d07c8c3200482e353631ab87</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/c1c45ad78358ebc599e8cee76c1bd948</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/4c35471fed8caa1efc824561eea06fc9</t>
   </si>
   <si>
@@ -1552,9 +1342,6 @@
     <t>1960-12-22T00:00:00Z</t>
   </si>
   <si>
-    <t>1952-05-30T00:00:00Z</t>
-  </si>
-  <si>
     <t>1948-02-06T00:00:00Z</t>
   </si>
   <si>
@@ -1564,18 +1351,9 @@
     <t>1945-01-17T00:00:00Z</t>
   </si>
   <si>
-    <t>1788-03-30T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1807-10-07T00:00:00Z</t>
-  </si>
-  <si>
     <t>1815-03-02T00:00:00Z</t>
   </si>
   <si>
-    <t>1796-12-09T00:00:00Z</t>
-  </si>
-  <si>
     <t>1802-12-01T00:00:00Z</t>
   </si>
   <si>
@@ -1585,9 +1363,6 @@
     <t>1781-06-03T00:00:00Z</t>
   </si>
   <si>
-    <t>1789-01-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1793-12-31T00:00:00Z</t>
   </si>
   <si>
@@ -1600,27 +1375,18 @@
     <t>1825-10-14T00:00:00Z</t>
   </si>
   <si>
-    <t>1823-01-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1797-09-26T00:00:00Z</t>
   </si>
   <si>
     <t>1828-12-20T00:00:00Z</t>
   </si>
   <si>
-    <t>1819-07-08T00:00:00Z</t>
-  </si>
-  <si>
     <t>1829-03-12T00:00:00Z</t>
   </si>
   <si>
     <t>1831-05-23T00:00:00Z</t>
   </si>
   <si>
-    <t>1829-09-26T00:00:00Z</t>
-  </si>
-  <si>
     <t>1819-03-03T00:00:00Z</t>
   </si>
   <si>
@@ -1669,12 +1435,6 @@
     <t>1849-03-07T00:00:00Z</t>
   </si>
   <si>
-    <t>1975-12-07T00:00:00Z</t>
-  </si>
-  <si>
-    <t>1973-01-18T00:00:00Z</t>
-  </si>
-  <si>
     <t>1971-01-03T00:00:00Z</t>
   </si>
   <si>
@@ -1705,9 +1465,6 @@
     <t>1900-12-31T00:00:00Z</t>
   </si>
   <si>
-    <t>1910-01-01T00:00:00Z</t>
-  </si>
-  <si>
     <t>1913-03-01T00:00:00Z</t>
   </si>
   <si>
@@ -1732,15 +1489,9 @@
     <t>1921-01-13T00:00:00Z</t>
   </si>
   <si>
-    <t>1903-12-23T00:00:00Z</t>
-  </si>
-  <si>
     <t>1930-02-03T00:00:00Z</t>
   </si>
   <si>
-    <t>1906-10-13T00:00:00Z</t>
-  </si>
-  <si>
     <t>1908-06-30T00:00:00Z</t>
   </si>
   <si>
@@ -1789,9 +1540,6 @@
     <t>http://www.wikidata.org/value/3da953c6d19eaccf69dfb606b6bc3211</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/c057d195567b4fa5b1257662fd0115f5</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/7aec5f749106aabf3120387c18846fe5</t>
   </si>
   <si>
@@ -1801,18 +1549,9 @@
     <t>http://www.wikidata.org/value/4b8445fa05508283970b1d29b5f5ef7c</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/326528dffa7fff0c9cbf1b9843d9ea2d</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/value/f93e18a2236a23986df09c5007f52e90</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/534ec99a9d70de30a46e5349e1e9c216</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/57d96a976ca4c04e9f4145df06926d19</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/b066bfcc685f978c2a0869f7d4fbf1b8</t>
   </si>
   <si>
@@ -1822,9 +1561,6 @@
     <t>http://www.wikidata.org/value/96928dd8ac5eebcaeefae979336b0e33</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/834418200adbeff7d1f725d8ca131f4e</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/f19b285aed4ea6b52f91bbddc1d9c233</t>
   </si>
   <si>
@@ -1837,27 +1573,18 @@
     <t>http://www.wikidata.org/value/8e6ca73fb545a781594e1e3bdc9668e0</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/d495c71854adffb3035eeeb051270f3b</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/94f23f661c51f32e88f8733082410652</t>
   </si>
   <si>
     <t>http://www.wikidata.org/value/84d0da2c39f8771c0918d09a5bf91c77</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/e211dc540997360590e874aeca0cecac</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/72c9051ce4412d185d921f7cffcb03da</t>
   </si>
   <si>
     <t>http://www.wikidata.org/value/75c9e4f035763b9648e41f607c6a537a</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/3ada73f367e9323e975ca7d9111dacd0</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/35960da4f75f7bd7f49940717cae2fe4</t>
   </si>
   <si>
@@ -1906,12 +1633,6 @@
     <t>http://www.wikidata.org/value/fc143e57cffbe229e933250d596fd5af</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/d6a248bd24a5380a9fa3cc6f605e8b53</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/value/bf7b0f014b7b98b696e53f78209bed30</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/f7b207cb2ae217fd77b368d97ce41d1b</t>
   </si>
   <si>
@@ -1942,9 +1663,6 @@
     <t>http://www.wikidata.org/value/dd504c6075db435b7f1f8e52e9aea194</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/74460733931ed9bf06d34fc2f44439c0</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/f1eb90d1afd1f077a1d28ff3490ab5b9</t>
   </si>
   <si>
@@ -1969,15 +1687,9 @@
     <t>http://www.wikidata.org/value/428ce8211ec452e4c401daf28a99929e</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/3475d8a9dd8835919845e72bc84ca796</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/6b4c3c806a957cbd4139aa9aa24139e7</t>
   </si>
   <si>
-    <t>http://www.wikidata.org/value/5142628dc04731a5fd277383ce548207</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/value/6819e5e5103002c7a9dcd6fd6b61b8be</t>
   </si>
   <si>
@@ -1994,6 +1706,9 @@
   </si>
   <si>
     <t>http://www.wikidata.org/value/20e0890d1858283a86e2a2ccbda068c5</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>F</t>
@@ -2367,7 +2082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2416,89 +2131,89 @@
         <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
+        <v>180</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="H2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J2" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" t="s">
-        <v>216</v>
+        <v>181</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="G3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" t="s">
-        <v>216</v>
+        <v>432</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="I3" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J3" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" t="s">
-        <v>216</v>
+        <v>181</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J4" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2509,28 +2224,28 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" t="s">
-        <v>216</v>
+        <v>183</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" t="s">
-        <v>216</v>
+        <v>433</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="I5" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J5" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2541,124 +2256,124 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>502</v>
+        <v>269</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>581</v>
+        <v>395</v>
       </c>
       <c r="I6" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J6" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>434</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="I7" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J7" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>582</v>
+        <v>501</v>
       </c>
       <c r="I8" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J8" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J9" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2669,156 +2384,156 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>504</v>
+        <v>209</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>583</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J10" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>365</v>
+        <v>189</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>505</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>584</v>
+        <v>189</v>
+      </c>
+      <c r="H11" t="s">
+        <v>189</v>
       </c>
       <c r="I11" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J11" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>366</v>
+        <v>189</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>365</v>
+        <v>189</v>
+      </c>
+      <c r="H12" t="s">
+        <v>189</v>
       </c>
       <c r="I12" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J12" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>388</v>
+        <v>502</v>
       </c>
       <c r="I13" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J13" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" t="s">
-        <v>216</v>
+        <v>191</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="G14" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" t="s">
-        <v>216</v>
+        <v>193</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J14" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2829,28 +2544,28 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" t="s">
-        <v>216</v>
+        <v>192</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" t="s">
-        <v>216</v>
+        <v>280</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="I15" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J15" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2861,28 +2576,28 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" t="s">
-        <v>216</v>
+        <v>193</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="G16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" t="s">
-        <v>216</v>
+        <v>192</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J16" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2893,5796 +2608,4770 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="G17" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
       <c r="I17" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J17" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="I18" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J18" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>474</v>
+        <v>322</v>
       </c>
       <c r="I19" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J19" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="I20" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J20" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="G21" t="s">
-        <v>507</v>
+        <v>197</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>586</v>
+        <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J21" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="G22" t="s">
-        <v>232</v>
+        <v>438</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>374</v>
+        <v>504</v>
       </c>
       <c r="I22" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J22" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>375</v>
+        <v>505</v>
       </c>
       <c r="I23" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J23" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>451</v>
+        <v>328</v>
       </c>
       <c r="I24" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J24" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="I25" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J25" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="G26" t="s">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>587</v>
+        <v>329</v>
       </c>
       <c r="I26" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J26" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G27" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
       <c r="I27" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J27" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="I28" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J28" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="G29" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="I29" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J29" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>441</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>382</v>
+        <v>507</v>
       </c>
       <c r="I30" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J30" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="G31" t="s">
-        <v>510</v>
+        <v>204</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>589</v>
+        <v>329</v>
       </c>
       <c r="I31" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J31" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="G32" t="s">
-        <v>234</v>
+        <v>442</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>376</v>
+        <v>508</v>
       </c>
       <c r="I32" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J32" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="I33" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J33" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>511</v>
+        <v>256</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>590</v>
+        <v>382</v>
       </c>
       <c r="I34" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J34" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>443</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="I35" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J35" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>512</v>
+        <v>201</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>591</v>
+        <v>326</v>
       </c>
       <c r="I36" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J36" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>513</v>
+        <v>209</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>592</v>
+        <v>334</v>
       </c>
       <c r="I37" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J37" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>381</v>
+        <v>510</v>
       </c>
       <c r="I38" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J38" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="I39" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J39" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
-        <v>514</v>
+        <v>212</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>593</v>
+        <v>337</v>
       </c>
       <c r="I40" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J40" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>379</v>
+        <v>189</v>
+      </c>
+      <c r="H41" t="s">
+        <v>189</v>
       </c>
       <c r="I41" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J41" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="I42" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J42" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>515</v>
+        <v>227</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>594</v>
+        <v>352</v>
       </c>
       <c r="I43" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J43" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="G44" t="s">
-        <v>216</v>
-      </c>
-      <c r="H44" t="s">
-        <v>216</v>
+        <v>445</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="I44" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J44" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="I45" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J45" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>447</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="I46" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J46" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>595</v>
+        <v>514</v>
       </c>
       <c r="I47" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J47" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G48" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="I48" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J48" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="G49" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>595</v>
+        <v>515</v>
       </c>
       <c r="I49" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J49" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
-      </c>
-      <c r="H50" t="s">
-        <v>216</v>
+        <v>225</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="I50" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J50" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>450</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>399</v>
+        <v>516</v>
       </c>
       <c r="I51" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J51" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="G52" t="s">
-        <v>517</v>
+        <v>212</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>596</v>
+        <v>337</v>
       </c>
       <c r="I52" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J52" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="G53" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="I53" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J53" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>400</v>
+        <v>189</v>
+      </c>
+      <c r="F54" t="s">
+        <v>189</v>
       </c>
       <c r="G54" t="s">
-        <v>518</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>597</v>
+        <v>189</v>
+      </c>
+      <c r="H54" t="s">
+        <v>189</v>
       </c>
       <c r="I54" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J54" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="G55" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>598</v>
+        <v>517</v>
       </c>
       <c r="I55" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J55" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="G56" t="s">
-        <v>520</v>
+        <v>230</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>599</v>
+        <v>355</v>
       </c>
       <c r="I56" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J56" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="G57" t="s">
-        <v>521</v>
+        <v>227</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="I57" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J57" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>404</v>
+        <v>189</v>
+      </c>
+      <c r="F58" t="s">
+        <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>522</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>601</v>
+        <v>189</v>
+      </c>
+      <c r="H58" t="s">
+        <v>189</v>
       </c>
       <c r="I58" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J58" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>249</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>391</v>
+        <v>189</v>
+      </c>
+      <c r="F59" t="s">
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>407</v>
+        <v>189</v>
+      </c>
+      <c r="H59" t="s">
+        <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J59" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="G60" t="s">
-        <v>523</v>
+        <v>452</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>602</v>
+        <v>518</v>
       </c>
       <c r="I60" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J60" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G61" t="s">
-        <v>524</v>
+        <v>235</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>603</v>
+        <v>360</v>
       </c>
       <c r="I61" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J61" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="G62" t="s">
-        <v>268</v>
+        <v>453</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>410</v>
+        <v>519</v>
       </c>
       <c r="I62" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J62" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>408</v>
+        <v>189</v>
+      </c>
+      <c r="F63" t="s">
+        <v>189</v>
       </c>
       <c r="G63" t="s">
-        <v>525</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>604</v>
+        <v>189</v>
+      </c>
+      <c r="H63" t="s">
+        <v>189</v>
       </c>
       <c r="I63" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J63" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="I64" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J64" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>454</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="I65" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J65" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
-      </c>
-      <c r="F66" t="s">
-        <v>216</v>
+        <v>234</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="G66" t="s">
-        <v>216</v>
-      </c>
-      <c r="H66" t="s">
-        <v>216</v>
+        <v>455</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="I66" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J66" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="G67" t="s">
-        <v>526</v>
+        <v>237</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>605</v>
+        <v>362</v>
       </c>
       <c r="I67" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J67" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="G68" t="s">
-        <v>272</v>
+        <v>456</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>414</v>
+        <v>522</v>
       </c>
       <c r="I68" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J68" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="G69" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="I69" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J69" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>457</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>413</v>
+        <v>523</v>
       </c>
       <c r="I70" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J70" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
-      </c>
-      <c r="F71" t="s">
-        <v>216</v>
+        <v>227</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="G71" t="s">
-        <v>216</v>
-      </c>
-      <c r="H71" t="s">
-        <v>216</v>
+        <v>458</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="I71" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J71" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
-      </c>
-      <c r="F72" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="G72" t="s">
-        <v>216</v>
-      </c>
-      <c r="H72" t="s">
-        <v>216</v>
+        <v>459</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="I72" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J72" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
-      </c>
-      <c r="F73" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="G73" t="s">
-        <v>216</v>
-      </c>
-      <c r="H73" t="s">
-        <v>216</v>
+        <v>460</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="I73" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J73" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" t="s">
-        <v>216</v>
+        <v>241</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G74" t="s">
-        <v>216</v>
-      </c>
-      <c r="H74" t="s">
-        <v>216</v>
+        <v>461</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="I74" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J74" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="G75" t="s">
-        <v>527</v>
+        <v>241</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>606</v>
+        <v>366</v>
       </c>
       <c r="I75" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J75" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="G76" t="s">
-        <v>528</v>
+        <v>245</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>607</v>
+        <v>370</v>
       </c>
       <c r="I76" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J76" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="G77" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="I77" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J77" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E78" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="G78" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
       <c r="I78" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J78" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="G79" t="s">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
       <c r="I79" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J79" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="G80" t="s">
-        <v>530</v>
+        <v>247</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>609</v>
+        <v>372</v>
       </c>
       <c r="I80" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J80" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E81" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="G81" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>610</v>
+        <v>529</v>
       </c>
       <c r="I81" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J81" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="G82" t="s">
-        <v>532</v>
+        <v>232</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>611</v>
+        <v>357</v>
       </c>
       <c r="I82" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J82" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="G83" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="I83" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J83" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="G84" t="s">
-        <v>533</v>
+        <v>248</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>612</v>
+        <v>373</v>
       </c>
       <c r="I84" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J84" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>216</v>
-      </c>
-      <c r="F85" t="s">
-        <v>216</v>
+        <v>232</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="G85" t="s">
-        <v>216</v>
-      </c>
-      <c r="H85" t="s">
-        <v>216</v>
+        <v>464</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="I85" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J85" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
-        <v>216</v>
-      </c>
-      <c r="F86" t="s">
-        <v>216</v>
+        <v>235</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="G86" t="s">
-        <v>216</v>
-      </c>
-      <c r="H86" t="s">
-        <v>216</v>
+        <v>465</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="I86" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J86" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="G87" t="s">
-        <v>534</v>
+        <v>249</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>613</v>
+        <v>375</v>
       </c>
       <c r="I87" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J87" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="G88" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>432</v>
+        <v>532</v>
       </c>
       <c r="I88" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J88" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="G89" t="s">
-        <v>535</v>
+        <v>252</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>614</v>
+        <v>378</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J89" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="G90" t="s">
-        <v>536</v>
+        <v>235</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>615</v>
+        <v>360</v>
       </c>
       <c r="I90" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J90" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="G91" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>616</v>
+        <v>533</v>
       </c>
       <c r="I91" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J91" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="G92" t="s">
-        <v>538</v>
+        <v>468</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>617</v>
+        <v>534</v>
       </c>
       <c r="I92" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J92" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="G93" t="s">
-        <v>539</v>
+        <v>469</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>618</v>
+        <v>535</v>
       </c>
       <c r="I93" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J93" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="G94" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="I94" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J94" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E95" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="G95" t="s">
-        <v>292</v>
+        <v>470</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>434</v>
+        <v>536</v>
       </c>
       <c r="I95" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J95" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="G96" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="I96" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J96" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>433</v>
+        <v>354</v>
       </c>
       <c r="G97" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>619</v>
+        <v>537</v>
       </c>
       <c r="I97" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J97" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="G98" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>620</v>
+        <v>538</v>
       </c>
       <c r="I98" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J98" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="G99" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="I99" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J99" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="G100" t="s">
-        <v>541</v>
+        <v>184</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="I100" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J100" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="G101" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="I101" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J101" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="G102" t="s">
-        <v>295</v>
+        <v>473</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="I102" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J102" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="G103" t="s">
-        <v>295</v>
+        <v>474</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="I103" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J103" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="G104" t="s">
-        <v>542</v>
+        <v>207</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>621</v>
+        <v>332</v>
       </c>
       <c r="I104" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J104" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="G105" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>622</v>
+        <v>541</v>
       </c>
       <c r="I105" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J105" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="G106" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="I106" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J106" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D107" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E107" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="G107" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>623</v>
+        <v>542</v>
       </c>
       <c r="I107" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J107" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="G108" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>442</v>
+        <v>306</v>
       </c>
       <c r="I108" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J108" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E109" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="G109" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="I109" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J109" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="G110" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="I110" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J110" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="G111" t="s">
-        <v>546</v>
+        <v>247</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>625</v>
+        <v>372</v>
       </c>
       <c r="I111" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J111" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E112" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="G112" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="I112" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J112" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D113" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E113" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="G113" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>461</v>
+        <v>317</v>
       </c>
       <c r="I113" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J113" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C114" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="G114" t="s">
-        <v>548</v>
+        <v>263</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>627</v>
+        <v>389</v>
       </c>
       <c r="I114" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J114" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C115" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="G115" t="s">
-        <v>273</v>
+        <v>480</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>415</v>
+        <v>546</v>
       </c>
       <c r="I115" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J115" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E116" t="s">
-        <v>273</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>415</v>
+        <v>189</v>
+      </c>
+      <c r="F116" t="s">
+        <v>189</v>
       </c>
       <c r="G116" t="s">
-        <v>549</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>628</v>
+        <v>189</v>
+      </c>
+      <c r="H116" t="s">
+        <v>189</v>
       </c>
       <c r="I116" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J116" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C117" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D117" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E117" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="G117" t="s">
-        <v>550</v>
+        <v>272</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>629</v>
+        <v>398</v>
       </c>
       <c r="I117" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J117" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="D118" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="E118" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="G118" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="I118" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J118" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D119" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="E119" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="G119" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>630</v>
+        <v>547</v>
       </c>
       <c r="I119" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J119" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E120" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="G120" t="s">
-        <v>221</v>
+        <v>482</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>363</v>
+        <v>548</v>
       </c>
       <c r="I120" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J120" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C121" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="G121" t="s">
-        <v>552</v>
+        <v>291</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>631</v>
+        <v>417</v>
       </c>
       <c r="I121" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J121" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E122" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="G122" t="s">
-        <v>304</v>
+        <v>483</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>447</v>
+        <v>549</v>
       </c>
       <c r="I122" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J122" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C123" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D123" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E123" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="G123" t="s">
-        <v>553</v>
+        <v>292</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>632</v>
+        <v>418</v>
       </c>
       <c r="I123" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J123" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E124" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="G124" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>633</v>
+        <v>550</v>
       </c>
       <c r="I124" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J124" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D125" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E125" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="G125" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="I125" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J125" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C126" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126" t="s">
         <v>139</v>
       </c>
-      <c r="D126" t="s">
-        <v>198</v>
-      </c>
       <c r="E126" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="G126" t="s">
-        <v>555</v>
+        <v>299</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>634</v>
+        <v>425</v>
       </c>
       <c r="I126" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J126" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D127" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="E127" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="G127" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>634</v>
+        <v>551</v>
       </c>
       <c r="I127" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J127" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E128" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="G128" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="I128" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J128" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C129" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D129" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E129" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="G129" t="s">
-        <v>556</v>
+        <v>486</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>635</v>
+        <v>552</v>
       </c>
       <c r="I129" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J129" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D130" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E130" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="G130" t="s">
-        <v>217</v>
+        <v>487</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>359</v>
+        <v>553</v>
       </c>
       <c r="I130" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J130" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D131" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="G131" t="s">
-        <v>557</v>
+        <v>282</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>636</v>
+        <v>408</v>
       </c>
       <c r="I131" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J131" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D132" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="E132" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="G132" t="s">
-        <v>558</v>
+        <v>296</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>637</v>
+        <v>422</v>
       </c>
       <c r="I132" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J132" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C133" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="G133" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>436</v>
+        <v>314</v>
       </c>
       <c r="I133" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J133" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="E134" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="G134" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>638</v>
+        <v>554</v>
       </c>
       <c r="I134" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J134" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D135" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E135" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="G135" t="s">
-        <v>228</v>
+        <v>489</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>370</v>
+        <v>555</v>
       </c>
       <c r="I135" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J135" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E136" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="G136" t="s">
-        <v>313</v>
+        <v>490</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>456</v>
+        <v>556</v>
       </c>
       <c r="I136" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J136" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C137" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D137" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="E137" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="G137" t="s">
-        <v>560</v>
+        <v>302</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>639</v>
+        <v>428</v>
       </c>
       <c r="I137" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J137" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C138" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D138" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E138" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="G138" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="I138" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J138" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C139" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D139" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="G139" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="I139" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J139" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D140" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E140" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="G140" t="s">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>640</v>
+        <v>557</v>
       </c>
       <c r="I140" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J140" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D141" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E141" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="G141" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>641</v>
+        <v>558</v>
       </c>
       <c r="I141" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J141" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B142" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D142" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E142" t="s">
-        <v>216</v>
-      </c>
-      <c r="F142" t="s">
-        <v>216</v>
+        <v>295</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="G142" t="s">
-        <v>216</v>
-      </c>
-      <c r="H142" t="s">
-        <v>216</v>
+        <v>275</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="I142" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J142" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C143" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D143" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E143" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F143" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G143" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="H143" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="I143" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J143" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E144" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="G144" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="I144" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J144" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C145" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D145" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="E145" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="G145" t="s">
-        <v>563</v>
+        <v>281</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>642</v>
+        <v>407</v>
       </c>
       <c r="I145" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J145" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B146" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C146" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D146" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>327</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>470</v>
+        <v>189</v>
+      </c>
+      <c r="F146" t="s">
+        <v>189</v>
       </c>
       <c r="G146" t="s">
-        <v>564</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>643</v>
+        <v>189</v>
+      </c>
+      <c r="H146" t="s">
+        <v>189</v>
       </c>
       <c r="I146" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J146" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B147" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C147" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E147" t="s">
-        <v>216</v>
-      </c>
-      <c r="F147" t="s">
-        <v>216</v>
+        <v>297</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="G147" t="s">
-        <v>216</v>
-      </c>
-      <c r="H147" t="s">
-        <v>216</v>
+        <v>493</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="I147" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J147" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C148" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D148" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E148" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="G148" t="s">
-        <v>343</v>
+        <v>494</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="I148" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J148" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C149" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D149" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E149" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="G149" t="s">
-        <v>565</v>
+        <v>277</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>644</v>
+        <v>403</v>
       </c>
       <c r="I149" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J149" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B150" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C150" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D150" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E150" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="G150" t="s">
-        <v>331</v>
+        <v>495</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>474</v>
+        <v>561</v>
       </c>
       <c r="I150" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J150" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B151" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C151" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E151" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="G151" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="I151" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J151" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B152" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C152" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D152" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E152" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="G152" t="s">
-        <v>566</v>
+        <v>287</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>645</v>
+        <v>413</v>
       </c>
       <c r="I152" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="J152" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B153" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C153" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D153" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E153" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="G153" t="s">
-        <v>322</v>
+        <v>495</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>465</v>
+        <v>561</v>
       </c>
       <c r="I153" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J153" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C154" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="D154" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="G154" t="s">
-        <v>567</v>
+        <v>496</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>646</v>
+        <v>562</v>
       </c>
       <c r="I154" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J154" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B155" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C155" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D155" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E155" t="s">
-        <v>216</v>
-      </c>
-      <c r="F155" t="s">
-        <v>216</v>
+        <v>305</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="G155" t="s">
-        <v>216</v>
-      </c>
-      <c r="H155" t="s">
-        <v>216</v>
+        <v>497</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="I155" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J155" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D156" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>478</v>
+        <v>417</v>
       </c>
       <c r="G156" t="s">
-        <v>568</v>
+        <v>302</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>647</v>
+        <v>428</v>
       </c>
       <c r="I156" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="J156" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" t="s">
-        <v>46</v>
-      </c>
-      <c r="B157" t="s">
-        <v>90</v>
-      </c>
-      <c r="C157" t="s">
-        <v>100</v>
-      </c>
-      <c r="D157" t="s">
-        <v>159</v>
-      </c>
-      <c r="E157" t="s">
-        <v>336</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G157" t="s">
-        <v>333</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I157" t="s">
-        <v>660</v>
-      </c>
-      <c r="J157" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="A158" t="s">
-        <v>46</v>
-      </c>
-      <c r="B158" t="s">
-        <v>90</v>
-      </c>
-      <c r="C158" t="s">
-        <v>100</v>
-      </c>
-      <c r="D158" t="s">
-        <v>159</v>
-      </c>
-      <c r="E158" t="s">
-        <v>337</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G158" t="s">
-        <v>349</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I158" t="s">
-        <v>660</v>
-      </c>
-      <c r="J158" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159" t="s">
-        <v>47</v>
-      </c>
-      <c r="B159" t="s">
-        <v>91</v>
-      </c>
-      <c r="C159" t="s">
-        <v>100</v>
-      </c>
-      <c r="D159" t="s">
-        <v>159</v>
-      </c>
-      <c r="E159" t="s">
-        <v>338</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G159" t="s">
-        <v>225</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I159" t="s">
-        <v>660</v>
-      </c>
-      <c r="J159" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="A160" t="s">
-        <v>47</v>
-      </c>
-      <c r="B160" t="s">
-        <v>91</v>
-      </c>
-      <c r="C160" t="s">
-        <v>147</v>
-      </c>
-      <c r="D160" t="s">
-        <v>206</v>
-      </c>
-      <c r="E160" t="s">
-        <v>339</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G160" t="s">
-        <v>569</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="I160" t="s">
-        <v>660</v>
-      </c>
-      <c r="J160" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" t="s">
-        <v>47</v>
-      </c>
-      <c r="B161" t="s">
-        <v>91</v>
-      </c>
-      <c r="C161" t="s">
-        <v>107</v>
-      </c>
-      <c r="D161" t="s">
-        <v>166</v>
-      </c>
-      <c r="E161" t="s">
-        <v>216</v>
-      </c>
-      <c r="F161" t="s">
-        <v>216</v>
-      </c>
-      <c r="G161" t="s">
-        <v>216</v>
-      </c>
-      <c r="H161" t="s">
-        <v>216</v>
-      </c>
-      <c r="I161" t="s">
-        <v>660</v>
-      </c>
-      <c r="J161" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" t="s">
-        <v>48</v>
-      </c>
-      <c r="B162" t="s">
-        <v>92</v>
-      </c>
-      <c r="C162" t="s">
-        <v>148</v>
-      </c>
-      <c r="D162" t="s">
-        <v>207</v>
-      </c>
-      <c r="E162" t="s">
-        <v>340</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G162" t="s">
-        <v>570</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I162" t="s">
-        <v>660</v>
-      </c>
-      <c r="J162" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" t="s">
-        <v>48</v>
-      </c>
-      <c r="B163" t="s">
-        <v>92</v>
-      </c>
-      <c r="C163" t="s">
-        <v>110</v>
-      </c>
-      <c r="D163" t="s">
-        <v>169</v>
-      </c>
-      <c r="E163" t="s">
-        <v>341</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G163" t="s">
-        <v>571</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="I163" t="s">
-        <v>660</v>
-      </c>
-      <c r="J163" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" t="s">
-        <v>48</v>
-      </c>
-      <c r="B164" t="s">
-        <v>92</v>
-      </c>
-      <c r="C164" t="s">
-        <v>100</v>
-      </c>
-      <c r="D164" t="s">
-        <v>159</v>
-      </c>
-      <c r="E164" t="s">
-        <v>342</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G164" t="s">
-        <v>355</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I164" t="s">
-        <v>660</v>
-      </c>
-      <c r="J164" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" t="s">
-        <v>48</v>
-      </c>
-      <c r="B165" t="s">
-        <v>92</v>
-      </c>
-      <c r="C165" t="s">
-        <v>107</v>
-      </c>
-      <c r="D165" t="s">
-        <v>166</v>
-      </c>
-      <c r="E165" t="s">
-        <v>216</v>
-      </c>
-      <c r="F165" t="s">
-        <v>216</v>
-      </c>
-      <c r="G165" t="s">
-        <v>216</v>
-      </c>
-      <c r="H165" t="s">
-        <v>216</v>
-      </c>
-      <c r="I165" t="s">
-        <v>660</v>
-      </c>
-      <c r="J165" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" t="s">
-        <v>49</v>
-      </c>
-      <c r="B166" t="s">
-        <v>93</v>
-      </c>
-      <c r="C166" t="s">
-        <v>112</v>
-      </c>
-      <c r="D166" t="s">
-        <v>171</v>
-      </c>
-      <c r="E166" t="s">
-        <v>328</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G166" t="s">
-        <v>343</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I166" t="s">
-        <v>660</v>
-      </c>
-      <c r="J166" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" t="s">
-        <v>49</v>
-      </c>
-      <c r="B167" t="s">
-        <v>93</v>
-      </c>
-      <c r="C167" t="s">
-        <v>100</v>
-      </c>
-      <c r="D167" t="s">
-        <v>159</v>
-      </c>
-      <c r="E167" t="s">
-        <v>343</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G167" t="s">
-        <v>337</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="I167" t="s">
-        <v>660</v>
-      </c>
-      <c r="J167" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" t="s">
-        <v>50</v>
-      </c>
-      <c r="B168" t="s">
-        <v>94</v>
-      </c>
-      <c r="C168" t="s">
-        <v>149</v>
-      </c>
-      <c r="D168" t="s">
-        <v>208</v>
-      </c>
-      <c r="E168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F168" t="s">
-        <v>216</v>
-      </c>
-      <c r="G168" t="s">
-        <v>216</v>
-      </c>
-      <c r="H168" t="s">
-        <v>216</v>
-      </c>
-      <c r="I168" t="s">
-        <v>660</v>
-      </c>
-      <c r="J168" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169" t="s">
-        <v>50</v>
-      </c>
-      <c r="B169" t="s">
-        <v>94</v>
-      </c>
-      <c r="C169" t="s">
-        <v>150</v>
-      </c>
-      <c r="D169" t="s">
-        <v>209</v>
-      </c>
-      <c r="E169" t="s">
-        <v>216</v>
-      </c>
-      <c r="F169" t="s">
-        <v>216</v>
-      </c>
-      <c r="G169" t="s">
-        <v>216</v>
-      </c>
-      <c r="H169" t="s">
-        <v>216</v>
-      </c>
-      <c r="I169" t="s">
-        <v>660</v>
-      </c>
-      <c r="J169" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" t="s">
-        <v>94</v>
-      </c>
-      <c r="C170" t="s">
-        <v>107</v>
-      </c>
-      <c r="D170" t="s">
-        <v>166</v>
-      </c>
-      <c r="E170" t="s">
-        <v>344</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G170" t="s">
-        <v>572</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="I170" t="s">
-        <v>660</v>
-      </c>
-      <c r="J170" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" t="s">
-        <v>50</v>
-      </c>
-      <c r="B171" t="s">
-        <v>94</v>
-      </c>
-      <c r="C171" t="s">
-        <v>151</v>
-      </c>
-      <c r="D171" t="s">
-        <v>210</v>
-      </c>
-      <c r="E171" t="s">
-        <v>345</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G171" t="s">
-        <v>573</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="I171" t="s">
-        <v>660</v>
-      </c>
-      <c r="J171" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" t="s">
-        <v>94</v>
-      </c>
-      <c r="C172" t="s">
-        <v>152</v>
-      </c>
-      <c r="D172" t="s">
-        <v>211</v>
-      </c>
-      <c r="E172" t="s">
-        <v>346</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G172" t="s">
-        <v>574</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="I172" t="s">
-        <v>660</v>
-      </c>
-      <c r="J172" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="A173" t="s">
-        <v>50</v>
-      </c>
-      <c r="B173" t="s">
-        <v>94</v>
-      </c>
-      <c r="C173" t="s">
-        <v>122</v>
-      </c>
-      <c r="D173" t="s">
-        <v>181</v>
-      </c>
-      <c r="E173" t="s">
-        <v>347</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G173" t="s">
-        <v>575</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="I173" t="s">
-        <v>660</v>
-      </c>
-      <c r="J173" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" t="s">
-        <v>50</v>
-      </c>
-      <c r="B174" t="s">
-        <v>94</v>
-      </c>
-      <c r="C174" t="s">
-        <v>100</v>
-      </c>
-      <c r="D174" t="s">
-        <v>159</v>
-      </c>
-      <c r="E174" t="s">
-        <v>348</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G174" t="s">
-        <v>325</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I174" t="s">
-        <v>660</v>
-      </c>
-      <c r="J174" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" t="s">
-        <v>51</v>
-      </c>
-      <c r="B175" t="s">
-        <v>95</v>
-      </c>
-      <c r="C175" t="s">
-        <v>100</v>
-      </c>
-      <c r="D175" t="s">
-        <v>159</v>
-      </c>
-      <c r="E175" t="s">
-        <v>349</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G175" t="s">
-        <v>336</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I175" t="s">
-        <v>660</v>
-      </c>
-      <c r="J175" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="A176" t="s">
-        <v>51</v>
-      </c>
-      <c r="B176" t="s">
-        <v>95</v>
-      </c>
-      <c r="C176" t="s">
-        <v>110</v>
-      </c>
-      <c r="D176" t="s">
-        <v>169</v>
-      </c>
-      <c r="E176" t="s">
-        <v>328</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G176" t="s">
-        <v>332</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="I176" t="s">
-        <v>660</v>
-      </c>
-      <c r="J176" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" t="s">
-        <v>52</v>
-      </c>
-      <c r="B177" t="s">
-        <v>96</v>
-      </c>
-      <c r="C177" t="s">
-        <v>146</v>
-      </c>
-      <c r="D177" t="s">
-        <v>205</v>
-      </c>
-      <c r="E177" t="s">
-        <v>350</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G177" t="s">
-        <v>576</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="I177" t="s">
-        <v>660</v>
-      </c>
-      <c r="J177" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
-      <c r="A178" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178" t="s">
-        <v>96</v>
-      </c>
-      <c r="C178" t="s">
-        <v>146</v>
-      </c>
-      <c r="D178" t="s">
-        <v>205</v>
-      </c>
-      <c r="E178" t="s">
-        <v>351</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G178" t="s">
-        <v>577</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I178" t="s">
-        <v>660</v>
-      </c>
-      <c r="J178" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179" t="s">
-        <v>96</v>
-      </c>
-      <c r="C179" t="s">
-        <v>100</v>
-      </c>
-      <c r="D179" t="s">
-        <v>159</v>
-      </c>
-      <c r="E179" t="s">
-        <v>352</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G179" t="s">
-        <v>328</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I179" t="s">
-        <v>660</v>
-      </c>
-      <c r="J179" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="A180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B180" t="s">
-        <v>96</v>
-      </c>
-      <c r="C180" t="s">
-        <v>113</v>
-      </c>
-      <c r="D180" t="s">
-        <v>172</v>
-      </c>
-      <c r="E180" t="s">
-        <v>216</v>
-      </c>
-      <c r="F180" t="s">
-        <v>216</v>
-      </c>
-      <c r="G180" t="s">
-        <v>216</v>
-      </c>
-      <c r="H180" t="s">
-        <v>216</v>
-      </c>
-      <c r="I180" t="s">
-        <v>660</v>
-      </c>
-      <c r="J180" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
-      <c r="A181" t="s">
-        <v>53</v>
-      </c>
-      <c r="B181" t="s">
-        <v>97</v>
-      </c>
-      <c r="C181" t="s">
-        <v>153</v>
-      </c>
-      <c r="D181" t="s">
-        <v>212</v>
-      </c>
-      <c r="E181" t="s">
-        <v>353</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G181" t="s">
-        <v>578</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="I181" t="s">
-        <v>660</v>
-      </c>
-      <c r="J181" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
-      <c r="A182" t="s">
-        <v>53</v>
-      </c>
-      <c r="B182" t="s">
-        <v>97</v>
-      </c>
-      <c r="C182" t="s">
-        <v>154</v>
-      </c>
-      <c r="D182" t="s">
-        <v>213</v>
-      </c>
-      <c r="E182" t="s">
-        <v>354</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G182" t="s">
-        <v>358</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I182" t="s">
-        <v>660</v>
-      </c>
-      <c r="J182" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
-      <c r="A183" t="s">
-        <v>53</v>
-      </c>
-      <c r="B183" t="s">
-        <v>97</v>
-      </c>
-      <c r="C183" t="s">
-        <v>100</v>
-      </c>
-      <c r="D183" t="s">
-        <v>159</v>
-      </c>
-      <c r="E183" t="s">
-        <v>355</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G183" t="s">
-        <v>338</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I183" t="s">
-        <v>660</v>
-      </c>
-      <c r="J183" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
-      <c r="A184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B184" t="s">
-        <v>97</v>
-      </c>
-      <c r="C184" t="s">
-        <v>155</v>
-      </c>
-      <c r="D184" t="s">
-        <v>214</v>
-      </c>
-      <c r="E184" t="s">
-        <v>356</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G184" t="s">
-        <v>578</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="I184" t="s">
-        <v>660</v>
-      </c>
-      <c r="J184" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
-      <c r="A185" t="s">
-        <v>53</v>
-      </c>
-      <c r="B185" t="s">
-        <v>97</v>
-      </c>
-      <c r="C185" t="s">
-        <v>120</v>
-      </c>
-      <c r="D185" t="s">
-        <v>179</v>
-      </c>
-      <c r="E185" t="s">
-        <v>357</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G185" t="s">
-        <v>579</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I185" t="s">
-        <v>660</v>
-      </c>
-      <c r="J185" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
-      <c r="A186" t="s">
-        <v>53</v>
-      </c>
-      <c r="B186" t="s">
-        <v>97</v>
-      </c>
-      <c r="C186" t="s">
-        <v>156</v>
-      </c>
-      <c r="D186" t="s">
-        <v>215</v>
-      </c>
-      <c r="E186" t="s">
-        <v>358</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G186" t="s">
-        <v>580</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I186" t="s">
-        <v>660</v>
-      </c>
-      <c r="J186" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="A187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B187" t="s">
-        <v>97</v>
-      </c>
-      <c r="C187" t="s">
-        <v>112</v>
-      </c>
-      <c r="D187" t="s">
-        <v>171</v>
-      </c>
-      <c r="E187" t="s">
-        <v>342</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G187" t="s">
-        <v>355</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I187" t="s">
-        <v>660</v>
-      </c>
-      <c r="J187" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="F7" r:id="rId4"/>
-    <hyperlink ref="H7" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="F10" r:id="rId10"/>
-    <hyperlink ref="H10" r:id="rId11"/>
-    <hyperlink ref="F11" r:id="rId12"/>
-    <hyperlink ref="H11" r:id="rId13"/>
-    <hyperlink ref="F12" r:id="rId14"/>
-    <hyperlink ref="H12" r:id="rId15"/>
-    <hyperlink ref="F13" r:id="rId16"/>
-    <hyperlink ref="H13" r:id="rId17"/>
-    <hyperlink ref="F17" r:id="rId18"/>
-    <hyperlink ref="H17" r:id="rId19"/>
-    <hyperlink ref="F18" r:id="rId20"/>
-    <hyperlink ref="H18" r:id="rId21"/>
-    <hyperlink ref="F19" r:id="rId22"/>
-    <hyperlink ref="H19" r:id="rId23"/>
-    <hyperlink ref="F20" r:id="rId24"/>
-    <hyperlink ref="H20" r:id="rId25"/>
-    <hyperlink ref="F21" r:id="rId26"/>
-    <hyperlink ref="H21" r:id="rId27"/>
-    <hyperlink ref="F22" r:id="rId28"/>
-    <hyperlink ref="H22" r:id="rId29"/>
-    <hyperlink ref="F23" r:id="rId30"/>
-    <hyperlink ref="H23" r:id="rId31"/>
-    <hyperlink ref="F24" r:id="rId32"/>
-    <hyperlink ref="H24" r:id="rId33"/>
-    <hyperlink ref="F25" r:id="rId34"/>
-    <hyperlink ref="H25" r:id="rId35"/>
-    <hyperlink ref="F26" r:id="rId36"/>
-    <hyperlink ref="H26" r:id="rId37"/>
-    <hyperlink ref="F27" r:id="rId38"/>
-    <hyperlink ref="H27" r:id="rId39"/>
-    <hyperlink ref="F28" r:id="rId40"/>
-    <hyperlink ref="H28" r:id="rId41"/>
-    <hyperlink ref="F29" r:id="rId42"/>
-    <hyperlink ref="H29" r:id="rId43"/>
-    <hyperlink ref="F30" r:id="rId44"/>
-    <hyperlink ref="H30" r:id="rId45"/>
-    <hyperlink ref="F31" r:id="rId46"/>
-    <hyperlink ref="H31" r:id="rId47"/>
-    <hyperlink ref="F32" r:id="rId48"/>
-    <hyperlink ref="H32" r:id="rId49"/>
-    <hyperlink ref="F33" r:id="rId50"/>
-    <hyperlink ref="H33" r:id="rId51"/>
-    <hyperlink ref="F34" r:id="rId52"/>
-    <hyperlink ref="H34" r:id="rId53"/>
-    <hyperlink ref="F35" r:id="rId54"/>
-    <hyperlink ref="H35" r:id="rId55"/>
-    <hyperlink ref="F36" r:id="rId56"/>
-    <hyperlink ref="H36" r:id="rId57"/>
-    <hyperlink ref="F37" r:id="rId58"/>
-    <hyperlink ref="H37" r:id="rId59"/>
-    <hyperlink ref="F38" r:id="rId60"/>
-    <hyperlink ref="H38" r:id="rId61"/>
-    <hyperlink ref="F39" r:id="rId62"/>
-    <hyperlink ref="H39" r:id="rId63"/>
-    <hyperlink ref="F40" r:id="rId64"/>
-    <hyperlink ref="H40" r:id="rId65"/>
-    <hyperlink ref="F41" r:id="rId66"/>
-    <hyperlink ref="H41" r:id="rId67"/>
-    <hyperlink ref="F42" r:id="rId68"/>
-    <hyperlink ref="H42" r:id="rId69"/>
-    <hyperlink ref="F43" r:id="rId70"/>
-    <hyperlink ref="H43" r:id="rId71"/>
-    <hyperlink ref="F45" r:id="rId72"/>
-    <hyperlink ref="H45" r:id="rId73"/>
-    <hyperlink ref="F46" r:id="rId74"/>
-    <hyperlink ref="H46" r:id="rId75"/>
-    <hyperlink ref="F47" r:id="rId76"/>
-    <hyperlink ref="H47" r:id="rId77"/>
-    <hyperlink ref="F48" r:id="rId78"/>
-    <hyperlink ref="H48" r:id="rId79"/>
-    <hyperlink ref="F49" r:id="rId80"/>
-    <hyperlink ref="H49" r:id="rId81"/>
-    <hyperlink ref="F50" r:id="rId82"/>
-    <hyperlink ref="F51" r:id="rId83"/>
-    <hyperlink ref="H51" r:id="rId84"/>
-    <hyperlink ref="F52" r:id="rId85"/>
-    <hyperlink ref="H52" r:id="rId86"/>
-    <hyperlink ref="F53" r:id="rId87"/>
-    <hyperlink ref="H53" r:id="rId88"/>
-    <hyperlink ref="F54" r:id="rId89"/>
-    <hyperlink ref="H54" r:id="rId90"/>
-    <hyperlink ref="F55" r:id="rId91"/>
-    <hyperlink ref="H55" r:id="rId92"/>
-    <hyperlink ref="F56" r:id="rId93"/>
-    <hyperlink ref="H56" r:id="rId94"/>
-    <hyperlink ref="F57" r:id="rId95"/>
-    <hyperlink ref="H57" r:id="rId96"/>
-    <hyperlink ref="F58" r:id="rId97"/>
-    <hyperlink ref="H58" r:id="rId98"/>
-    <hyperlink ref="F59" r:id="rId99"/>
-    <hyperlink ref="H59" r:id="rId100"/>
-    <hyperlink ref="F60" r:id="rId101"/>
-    <hyperlink ref="H60" r:id="rId102"/>
-    <hyperlink ref="F61" r:id="rId103"/>
-    <hyperlink ref="H61" r:id="rId104"/>
-    <hyperlink ref="F62" r:id="rId105"/>
-    <hyperlink ref="H62" r:id="rId106"/>
-    <hyperlink ref="F63" r:id="rId107"/>
-    <hyperlink ref="H63" r:id="rId108"/>
-    <hyperlink ref="F64" r:id="rId109"/>
-    <hyperlink ref="H64" r:id="rId110"/>
-    <hyperlink ref="F65" r:id="rId111"/>
-    <hyperlink ref="H65" r:id="rId112"/>
-    <hyperlink ref="F67" r:id="rId113"/>
-    <hyperlink ref="H67" r:id="rId114"/>
-    <hyperlink ref="F68" r:id="rId115"/>
-    <hyperlink ref="H68" r:id="rId116"/>
-    <hyperlink ref="F69" r:id="rId117"/>
-    <hyperlink ref="H69" r:id="rId118"/>
-    <hyperlink ref="F70" r:id="rId119"/>
-    <hyperlink ref="H70" r:id="rId120"/>
-    <hyperlink ref="F75" r:id="rId121"/>
-    <hyperlink ref="H75" r:id="rId122"/>
-    <hyperlink ref="F76" r:id="rId123"/>
-    <hyperlink ref="H76" r:id="rId124"/>
-    <hyperlink ref="F77" r:id="rId125"/>
-    <hyperlink ref="H77" r:id="rId126"/>
-    <hyperlink ref="F78" r:id="rId127"/>
-    <hyperlink ref="H78" r:id="rId128"/>
-    <hyperlink ref="F79" r:id="rId129"/>
-    <hyperlink ref="H79" r:id="rId130"/>
-    <hyperlink ref="F80" r:id="rId131"/>
-    <hyperlink ref="H80" r:id="rId132"/>
-    <hyperlink ref="F81" r:id="rId133"/>
-    <hyperlink ref="H81" r:id="rId134"/>
-    <hyperlink ref="F82" r:id="rId135"/>
-    <hyperlink ref="H82" r:id="rId136"/>
-    <hyperlink ref="F83" r:id="rId137"/>
-    <hyperlink ref="H83" r:id="rId138"/>
-    <hyperlink ref="F84" r:id="rId139"/>
-    <hyperlink ref="H84" r:id="rId140"/>
-    <hyperlink ref="F87" r:id="rId141"/>
-    <hyperlink ref="H87" r:id="rId142"/>
-    <hyperlink ref="F88" r:id="rId143"/>
-    <hyperlink ref="H88" r:id="rId144"/>
-    <hyperlink ref="F89" r:id="rId145"/>
-    <hyperlink ref="H89" r:id="rId146"/>
-    <hyperlink ref="F90" r:id="rId147"/>
-    <hyperlink ref="H90" r:id="rId148"/>
-    <hyperlink ref="F91" r:id="rId149"/>
-    <hyperlink ref="H91" r:id="rId150"/>
-    <hyperlink ref="F92" r:id="rId151"/>
-    <hyperlink ref="H92" r:id="rId152"/>
-    <hyperlink ref="F93" r:id="rId153"/>
-    <hyperlink ref="H93" r:id="rId154"/>
-    <hyperlink ref="F94" r:id="rId155"/>
-    <hyperlink ref="H94" r:id="rId156"/>
-    <hyperlink ref="F95" r:id="rId157"/>
-    <hyperlink ref="H95" r:id="rId158"/>
-    <hyperlink ref="F96" r:id="rId159"/>
-    <hyperlink ref="H96" r:id="rId160"/>
-    <hyperlink ref="F97" r:id="rId161"/>
-    <hyperlink ref="H97" r:id="rId162"/>
-    <hyperlink ref="F98" r:id="rId163"/>
-    <hyperlink ref="H98" r:id="rId164"/>
-    <hyperlink ref="F99" r:id="rId165"/>
-    <hyperlink ref="H99" r:id="rId166"/>
-    <hyperlink ref="F100" r:id="rId167"/>
-    <hyperlink ref="H100" r:id="rId168"/>
-    <hyperlink ref="F101" r:id="rId169"/>
-    <hyperlink ref="H101" r:id="rId170"/>
-    <hyperlink ref="F102" r:id="rId171"/>
-    <hyperlink ref="H102" r:id="rId172"/>
-    <hyperlink ref="F103" r:id="rId173"/>
-    <hyperlink ref="H103" r:id="rId174"/>
-    <hyperlink ref="F104" r:id="rId175"/>
-    <hyperlink ref="H104" r:id="rId176"/>
-    <hyperlink ref="F105" r:id="rId177"/>
-    <hyperlink ref="H105" r:id="rId178"/>
-    <hyperlink ref="F106" r:id="rId179"/>
-    <hyperlink ref="H106" r:id="rId180"/>
-    <hyperlink ref="F107" r:id="rId181"/>
-    <hyperlink ref="H107" r:id="rId182"/>
-    <hyperlink ref="F108" r:id="rId183"/>
-    <hyperlink ref="H108" r:id="rId184"/>
-    <hyperlink ref="F109" r:id="rId185"/>
-    <hyperlink ref="H109" r:id="rId186"/>
-    <hyperlink ref="F110" r:id="rId187"/>
-    <hyperlink ref="H110" r:id="rId188"/>
-    <hyperlink ref="F111" r:id="rId189"/>
-    <hyperlink ref="H111" r:id="rId190"/>
-    <hyperlink ref="F112" r:id="rId191"/>
-    <hyperlink ref="H112" r:id="rId192"/>
-    <hyperlink ref="F113" r:id="rId193"/>
-    <hyperlink ref="H113" r:id="rId194"/>
-    <hyperlink ref="F114" r:id="rId195"/>
-    <hyperlink ref="H114" r:id="rId196"/>
-    <hyperlink ref="F115" r:id="rId197"/>
-    <hyperlink ref="H115" r:id="rId198"/>
-    <hyperlink ref="F116" r:id="rId199"/>
-    <hyperlink ref="H116" r:id="rId200"/>
-    <hyperlink ref="F117" r:id="rId201"/>
-    <hyperlink ref="H117" r:id="rId202"/>
-    <hyperlink ref="F118" r:id="rId203"/>
-    <hyperlink ref="H118" r:id="rId204"/>
-    <hyperlink ref="F119" r:id="rId205"/>
-    <hyperlink ref="H119" r:id="rId206"/>
-    <hyperlink ref="F120" r:id="rId207"/>
-    <hyperlink ref="H120" r:id="rId208"/>
-    <hyperlink ref="F121" r:id="rId209"/>
-    <hyperlink ref="H121" r:id="rId210"/>
-    <hyperlink ref="F122" r:id="rId211"/>
-    <hyperlink ref="H122" r:id="rId212"/>
-    <hyperlink ref="F123" r:id="rId213"/>
-    <hyperlink ref="H123" r:id="rId214"/>
-    <hyperlink ref="F124" r:id="rId215"/>
-    <hyperlink ref="H124" r:id="rId216"/>
-    <hyperlink ref="F125" r:id="rId217"/>
-    <hyperlink ref="H125" r:id="rId218"/>
-    <hyperlink ref="F126" r:id="rId219"/>
-    <hyperlink ref="H126" r:id="rId220"/>
-    <hyperlink ref="F127" r:id="rId221"/>
-    <hyperlink ref="H127" r:id="rId222"/>
-    <hyperlink ref="F128" r:id="rId223"/>
-    <hyperlink ref="H128" r:id="rId224"/>
-    <hyperlink ref="F129" r:id="rId225"/>
-    <hyperlink ref="H129" r:id="rId226"/>
-    <hyperlink ref="F130" r:id="rId227"/>
-    <hyperlink ref="H130" r:id="rId228"/>
-    <hyperlink ref="F131" r:id="rId229"/>
-    <hyperlink ref="H131" r:id="rId230"/>
-    <hyperlink ref="F132" r:id="rId231"/>
-    <hyperlink ref="H132" r:id="rId232"/>
-    <hyperlink ref="F133" r:id="rId233"/>
-    <hyperlink ref="H133" r:id="rId234"/>
-    <hyperlink ref="F134" r:id="rId235"/>
-    <hyperlink ref="H134" r:id="rId236"/>
-    <hyperlink ref="F135" r:id="rId237"/>
-    <hyperlink ref="H135" r:id="rId238"/>
-    <hyperlink ref="F136" r:id="rId239"/>
-    <hyperlink ref="H136" r:id="rId240"/>
-    <hyperlink ref="F137" r:id="rId241"/>
-    <hyperlink ref="H137" r:id="rId242"/>
-    <hyperlink ref="F138" r:id="rId243"/>
-    <hyperlink ref="H138" r:id="rId244"/>
-    <hyperlink ref="F139" r:id="rId245"/>
-    <hyperlink ref="H139" r:id="rId246"/>
-    <hyperlink ref="F140" r:id="rId247"/>
-    <hyperlink ref="H140" r:id="rId248"/>
-    <hyperlink ref="F141" r:id="rId249"/>
-    <hyperlink ref="H141" r:id="rId250"/>
-    <hyperlink ref="F144" r:id="rId251"/>
-    <hyperlink ref="H144" r:id="rId252"/>
-    <hyperlink ref="F145" r:id="rId253"/>
-    <hyperlink ref="H145" r:id="rId254"/>
-    <hyperlink ref="F146" r:id="rId255"/>
-    <hyperlink ref="H146" r:id="rId256"/>
-    <hyperlink ref="F148" r:id="rId257"/>
-    <hyperlink ref="H148" r:id="rId258"/>
-    <hyperlink ref="F149" r:id="rId259"/>
-    <hyperlink ref="H149" r:id="rId260"/>
-    <hyperlink ref="F150" r:id="rId261"/>
-    <hyperlink ref="H150" r:id="rId262"/>
-    <hyperlink ref="F151" r:id="rId263"/>
-    <hyperlink ref="H151" r:id="rId264"/>
-    <hyperlink ref="F152" r:id="rId265"/>
-    <hyperlink ref="H152" r:id="rId266"/>
-    <hyperlink ref="F153" r:id="rId267"/>
-    <hyperlink ref="H153" r:id="rId268"/>
-    <hyperlink ref="F154" r:id="rId269"/>
-    <hyperlink ref="H154" r:id="rId270"/>
-    <hyperlink ref="F156" r:id="rId271"/>
-    <hyperlink ref="H156" r:id="rId272"/>
-    <hyperlink ref="F157" r:id="rId273"/>
-    <hyperlink ref="H157" r:id="rId274"/>
-    <hyperlink ref="F158" r:id="rId275"/>
-    <hyperlink ref="H158" r:id="rId276"/>
-    <hyperlink ref="F159" r:id="rId277"/>
-    <hyperlink ref="H159" r:id="rId278"/>
-    <hyperlink ref="F160" r:id="rId279"/>
-    <hyperlink ref="H160" r:id="rId280"/>
-    <hyperlink ref="F162" r:id="rId281"/>
-    <hyperlink ref="H162" r:id="rId282"/>
-    <hyperlink ref="F163" r:id="rId283"/>
-    <hyperlink ref="H163" r:id="rId284"/>
-    <hyperlink ref="F164" r:id="rId285"/>
-    <hyperlink ref="H164" r:id="rId286"/>
-    <hyperlink ref="F166" r:id="rId287"/>
-    <hyperlink ref="H166" r:id="rId288"/>
-    <hyperlink ref="F167" r:id="rId289"/>
-    <hyperlink ref="H167" r:id="rId290"/>
-    <hyperlink ref="F170" r:id="rId291"/>
-    <hyperlink ref="H170" r:id="rId292"/>
-    <hyperlink ref="F171" r:id="rId293"/>
-    <hyperlink ref="H171" r:id="rId294"/>
-    <hyperlink ref="F172" r:id="rId295"/>
-    <hyperlink ref="H172" r:id="rId296"/>
-    <hyperlink ref="F173" r:id="rId297"/>
-    <hyperlink ref="H173" r:id="rId298"/>
-    <hyperlink ref="F174" r:id="rId299"/>
-    <hyperlink ref="H174" r:id="rId300"/>
-    <hyperlink ref="F175" r:id="rId301"/>
-    <hyperlink ref="H175" r:id="rId302"/>
-    <hyperlink ref="F176" r:id="rId303"/>
-    <hyperlink ref="H176" r:id="rId304"/>
-    <hyperlink ref="F177" r:id="rId305"/>
-    <hyperlink ref="H177" r:id="rId306"/>
-    <hyperlink ref="F178" r:id="rId307"/>
-    <hyperlink ref="H178" r:id="rId308"/>
-    <hyperlink ref="F179" r:id="rId309"/>
-    <hyperlink ref="H179" r:id="rId310"/>
-    <hyperlink ref="F181" r:id="rId311"/>
-    <hyperlink ref="H181" r:id="rId312"/>
-    <hyperlink ref="F182" r:id="rId313"/>
-    <hyperlink ref="H182" r:id="rId314"/>
-    <hyperlink ref="F183" r:id="rId315"/>
-    <hyperlink ref="H183" r:id="rId316"/>
-    <hyperlink ref="F184" r:id="rId317"/>
-    <hyperlink ref="H184" r:id="rId318"/>
-    <hyperlink ref="F185" r:id="rId319"/>
-    <hyperlink ref="H185" r:id="rId320"/>
-    <hyperlink ref="F186" r:id="rId321"/>
-    <hyperlink ref="H186" r:id="rId322"/>
-    <hyperlink ref="F187" r:id="rId323"/>
-    <hyperlink ref="H187" r:id="rId324"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="H6" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="H9" r:id="rId15"/>
+    <hyperlink ref="F10" r:id="rId16"/>
+    <hyperlink ref="H10" r:id="rId17"/>
+    <hyperlink ref="F13" r:id="rId18"/>
+    <hyperlink ref="H13" r:id="rId19"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="H14" r:id="rId21"/>
+    <hyperlink ref="F15" r:id="rId22"/>
+    <hyperlink ref="H15" r:id="rId23"/>
+    <hyperlink ref="F16" r:id="rId24"/>
+    <hyperlink ref="H16" r:id="rId25"/>
+    <hyperlink ref="F17" r:id="rId26"/>
+    <hyperlink ref="H17" r:id="rId27"/>
+    <hyperlink ref="F18" r:id="rId28"/>
+    <hyperlink ref="H18" r:id="rId29"/>
+    <hyperlink ref="F19" r:id="rId30"/>
+    <hyperlink ref="H19" r:id="rId31"/>
+    <hyperlink ref="F20" r:id="rId32"/>
+    <hyperlink ref="H20" r:id="rId33"/>
+    <hyperlink ref="F21" r:id="rId34"/>
+    <hyperlink ref="H21" r:id="rId35"/>
+    <hyperlink ref="F22" r:id="rId36"/>
+    <hyperlink ref="H22" r:id="rId37"/>
+    <hyperlink ref="F23" r:id="rId38"/>
+    <hyperlink ref="H23" r:id="rId39"/>
+    <hyperlink ref="F24" r:id="rId40"/>
+    <hyperlink ref="H24" r:id="rId41"/>
+    <hyperlink ref="F25" r:id="rId42"/>
+    <hyperlink ref="H25" r:id="rId43"/>
+    <hyperlink ref="F26" r:id="rId44"/>
+    <hyperlink ref="H26" r:id="rId45"/>
+    <hyperlink ref="F27" r:id="rId46"/>
+    <hyperlink ref="H27" r:id="rId47"/>
+    <hyperlink ref="F28" r:id="rId48"/>
+    <hyperlink ref="H28" r:id="rId49"/>
+    <hyperlink ref="F29" r:id="rId50"/>
+    <hyperlink ref="H29" r:id="rId51"/>
+    <hyperlink ref="F30" r:id="rId52"/>
+    <hyperlink ref="H30" r:id="rId53"/>
+    <hyperlink ref="F31" r:id="rId54"/>
+    <hyperlink ref="H31" r:id="rId55"/>
+    <hyperlink ref="F32" r:id="rId56"/>
+    <hyperlink ref="H32" r:id="rId57"/>
+    <hyperlink ref="F33" r:id="rId58"/>
+    <hyperlink ref="H33" r:id="rId59"/>
+    <hyperlink ref="F34" r:id="rId60"/>
+    <hyperlink ref="H34" r:id="rId61"/>
+    <hyperlink ref="F35" r:id="rId62"/>
+    <hyperlink ref="H35" r:id="rId63"/>
+    <hyperlink ref="F36" r:id="rId64"/>
+    <hyperlink ref="H36" r:id="rId65"/>
+    <hyperlink ref="F37" r:id="rId66"/>
+    <hyperlink ref="H37" r:id="rId67"/>
+    <hyperlink ref="F38" r:id="rId68"/>
+    <hyperlink ref="H38" r:id="rId69"/>
+    <hyperlink ref="F39" r:id="rId70"/>
+    <hyperlink ref="H39" r:id="rId71"/>
+    <hyperlink ref="F40" r:id="rId72"/>
+    <hyperlink ref="H40" r:id="rId73"/>
+    <hyperlink ref="F41" r:id="rId74"/>
+    <hyperlink ref="F42" r:id="rId75"/>
+    <hyperlink ref="H42" r:id="rId76"/>
+    <hyperlink ref="F43" r:id="rId77"/>
+    <hyperlink ref="H43" r:id="rId78"/>
+    <hyperlink ref="F44" r:id="rId79"/>
+    <hyperlink ref="H44" r:id="rId80"/>
+    <hyperlink ref="F45" r:id="rId81"/>
+    <hyperlink ref="H45" r:id="rId82"/>
+    <hyperlink ref="F46" r:id="rId83"/>
+    <hyperlink ref="H46" r:id="rId84"/>
+    <hyperlink ref="F47" r:id="rId85"/>
+    <hyperlink ref="H47" r:id="rId86"/>
+    <hyperlink ref="F48" r:id="rId87"/>
+    <hyperlink ref="H48" r:id="rId88"/>
+    <hyperlink ref="F49" r:id="rId89"/>
+    <hyperlink ref="H49" r:id="rId90"/>
+    <hyperlink ref="F50" r:id="rId91"/>
+    <hyperlink ref="H50" r:id="rId92"/>
+    <hyperlink ref="F51" r:id="rId93"/>
+    <hyperlink ref="H51" r:id="rId94"/>
+    <hyperlink ref="F52" r:id="rId95"/>
+    <hyperlink ref="H52" r:id="rId96"/>
+    <hyperlink ref="F53" r:id="rId97"/>
+    <hyperlink ref="H53" r:id="rId98"/>
+    <hyperlink ref="F55" r:id="rId99"/>
+    <hyperlink ref="H55" r:id="rId100"/>
+    <hyperlink ref="F56" r:id="rId101"/>
+    <hyperlink ref="H56" r:id="rId102"/>
+    <hyperlink ref="F57" r:id="rId103"/>
+    <hyperlink ref="H57" r:id="rId104"/>
+    <hyperlink ref="F60" r:id="rId105"/>
+    <hyperlink ref="H60" r:id="rId106"/>
+    <hyperlink ref="F61" r:id="rId107"/>
+    <hyperlink ref="H61" r:id="rId108"/>
+    <hyperlink ref="F62" r:id="rId109"/>
+    <hyperlink ref="H62" r:id="rId110"/>
+    <hyperlink ref="F64" r:id="rId111"/>
+    <hyperlink ref="H64" r:id="rId112"/>
+    <hyperlink ref="F65" r:id="rId113"/>
+    <hyperlink ref="H65" r:id="rId114"/>
+    <hyperlink ref="F66" r:id="rId115"/>
+    <hyperlink ref="H66" r:id="rId116"/>
+    <hyperlink ref="F67" r:id="rId117"/>
+    <hyperlink ref="H67" r:id="rId118"/>
+    <hyperlink ref="F68" r:id="rId119"/>
+    <hyperlink ref="H68" r:id="rId120"/>
+    <hyperlink ref="F69" r:id="rId121"/>
+    <hyperlink ref="H69" r:id="rId122"/>
+    <hyperlink ref="F70" r:id="rId123"/>
+    <hyperlink ref="H70" r:id="rId124"/>
+    <hyperlink ref="F71" r:id="rId125"/>
+    <hyperlink ref="H71" r:id="rId126"/>
+    <hyperlink ref="F72" r:id="rId127"/>
+    <hyperlink ref="H72" r:id="rId128"/>
+    <hyperlink ref="F73" r:id="rId129"/>
+    <hyperlink ref="H73" r:id="rId130"/>
+    <hyperlink ref="F74" r:id="rId131"/>
+    <hyperlink ref="H74" r:id="rId132"/>
+    <hyperlink ref="F75" r:id="rId133"/>
+    <hyperlink ref="H75" r:id="rId134"/>
+    <hyperlink ref="F76" r:id="rId135"/>
+    <hyperlink ref="H76" r:id="rId136"/>
+    <hyperlink ref="F77" r:id="rId137"/>
+    <hyperlink ref="H77" r:id="rId138"/>
+    <hyperlink ref="F78" r:id="rId139"/>
+    <hyperlink ref="H78" r:id="rId140"/>
+    <hyperlink ref="F79" r:id="rId141"/>
+    <hyperlink ref="H79" r:id="rId142"/>
+    <hyperlink ref="F80" r:id="rId143"/>
+    <hyperlink ref="H80" r:id="rId144"/>
+    <hyperlink ref="F81" r:id="rId145"/>
+    <hyperlink ref="H81" r:id="rId146"/>
+    <hyperlink ref="F82" r:id="rId147"/>
+    <hyperlink ref="H82" r:id="rId148"/>
+    <hyperlink ref="F83" r:id="rId149"/>
+    <hyperlink ref="H83" r:id="rId150"/>
+    <hyperlink ref="F84" r:id="rId151"/>
+    <hyperlink ref="H84" r:id="rId152"/>
+    <hyperlink ref="F85" r:id="rId153"/>
+    <hyperlink ref="H85" r:id="rId154"/>
+    <hyperlink ref="F86" r:id="rId155"/>
+    <hyperlink ref="H86" r:id="rId156"/>
+    <hyperlink ref="F87" r:id="rId157"/>
+    <hyperlink ref="H87" r:id="rId158"/>
+    <hyperlink ref="F88" r:id="rId159"/>
+    <hyperlink ref="H88" r:id="rId160"/>
+    <hyperlink ref="F89" r:id="rId161"/>
+    <hyperlink ref="H89" r:id="rId162"/>
+    <hyperlink ref="F90" r:id="rId163"/>
+    <hyperlink ref="H90" r:id="rId164"/>
+    <hyperlink ref="F91" r:id="rId165"/>
+    <hyperlink ref="H91" r:id="rId166"/>
+    <hyperlink ref="F92" r:id="rId167"/>
+    <hyperlink ref="H92" r:id="rId168"/>
+    <hyperlink ref="F93" r:id="rId169"/>
+    <hyperlink ref="H93" r:id="rId170"/>
+    <hyperlink ref="F94" r:id="rId171"/>
+    <hyperlink ref="H94" r:id="rId172"/>
+    <hyperlink ref="F95" r:id="rId173"/>
+    <hyperlink ref="H95" r:id="rId174"/>
+    <hyperlink ref="F96" r:id="rId175"/>
+    <hyperlink ref="H96" r:id="rId176"/>
+    <hyperlink ref="F97" r:id="rId177"/>
+    <hyperlink ref="H97" r:id="rId178"/>
+    <hyperlink ref="F98" r:id="rId179"/>
+    <hyperlink ref="H98" r:id="rId180"/>
+    <hyperlink ref="F99" r:id="rId181"/>
+    <hyperlink ref="H99" r:id="rId182"/>
+    <hyperlink ref="F100" r:id="rId183"/>
+    <hyperlink ref="H100" r:id="rId184"/>
+    <hyperlink ref="F101" r:id="rId185"/>
+    <hyperlink ref="H101" r:id="rId186"/>
+    <hyperlink ref="F102" r:id="rId187"/>
+    <hyperlink ref="H102" r:id="rId188"/>
+    <hyperlink ref="F103" r:id="rId189"/>
+    <hyperlink ref="H103" r:id="rId190"/>
+    <hyperlink ref="F104" r:id="rId191"/>
+    <hyperlink ref="H104" r:id="rId192"/>
+    <hyperlink ref="F105" r:id="rId193"/>
+    <hyperlink ref="H105" r:id="rId194"/>
+    <hyperlink ref="F106" r:id="rId195"/>
+    <hyperlink ref="H106" r:id="rId196"/>
+    <hyperlink ref="F107" r:id="rId197"/>
+    <hyperlink ref="H107" r:id="rId198"/>
+    <hyperlink ref="F108" r:id="rId199"/>
+    <hyperlink ref="H108" r:id="rId200"/>
+    <hyperlink ref="F109" r:id="rId201"/>
+    <hyperlink ref="H109" r:id="rId202"/>
+    <hyperlink ref="F110" r:id="rId203"/>
+    <hyperlink ref="H110" r:id="rId204"/>
+    <hyperlink ref="F111" r:id="rId205"/>
+    <hyperlink ref="H111" r:id="rId206"/>
+    <hyperlink ref="F112" r:id="rId207"/>
+    <hyperlink ref="H112" r:id="rId208"/>
+    <hyperlink ref="F113" r:id="rId209"/>
+    <hyperlink ref="H113" r:id="rId210"/>
+    <hyperlink ref="F114" r:id="rId211"/>
+    <hyperlink ref="H114" r:id="rId212"/>
+    <hyperlink ref="F115" r:id="rId213"/>
+    <hyperlink ref="H115" r:id="rId214"/>
+    <hyperlink ref="F117" r:id="rId215"/>
+    <hyperlink ref="H117" r:id="rId216"/>
+    <hyperlink ref="F118" r:id="rId217"/>
+    <hyperlink ref="H118" r:id="rId218"/>
+    <hyperlink ref="F119" r:id="rId219"/>
+    <hyperlink ref="H119" r:id="rId220"/>
+    <hyperlink ref="F120" r:id="rId221"/>
+    <hyperlink ref="H120" r:id="rId222"/>
+    <hyperlink ref="F121" r:id="rId223"/>
+    <hyperlink ref="H121" r:id="rId224"/>
+    <hyperlink ref="F122" r:id="rId225"/>
+    <hyperlink ref="H122" r:id="rId226"/>
+    <hyperlink ref="F123" r:id="rId227"/>
+    <hyperlink ref="H123" r:id="rId228"/>
+    <hyperlink ref="F124" r:id="rId229"/>
+    <hyperlink ref="H124" r:id="rId230"/>
+    <hyperlink ref="F125" r:id="rId231"/>
+    <hyperlink ref="H125" r:id="rId232"/>
+    <hyperlink ref="F126" r:id="rId233"/>
+    <hyperlink ref="H126" r:id="rId234"/>
+    <hyperlink ref="F127" r:id="rId235"/>
+    <hyperlink ref="H127" r:id="rId236"/>
+    <hyperlink ref="F128" r:id="rId237"/>
+    <hyperlink ref="H128" r:id="rId238"/>
+    <hyperlink ref="F129" r:id="rId239"/>
+    <hyperlink ref="H129" r:id="rId240"/>
+    <hyperlink ref="F130" r:id="rId241"/>
+    <hyperlink ref="H130" r:id="rId242"/>
+    <hyperlink ref="F131" r:id="rId243"/>
+    <hyperlink ref="H131" r:id="rId244"/>
+    <hyperlink ref="F132" r:id="rId245"/>
+    <hyperlink ref="H132" r:id="rId246"/>
+    <hyperlink ref="F133" r:id="rId247"/>
+    <hyperlink ref="H133" r:id="rId248"/>
+    <hyperlink ref="F134" r:id="rId249"/>
+    <hyperlink ref="H134" r:id="rId250"/>
+    <hyperlink ref="F135" r:id="rId251"/>
+    <hyperlink ref="H135" r:id="rId252"/>
+    <hyperlink ref="F136" r:id="rId253"/>
+    <hyperlink ref="H136" r:id="rId254"/>
+    <hyperlink ref="F137" r:id="rId255"/>
+    <hyperlink ref="H137" r:id="rId256"/>
+    <hyperlink ref="F138" r:id="rId257"/>
+    <hyperlink ref="H138" r:id="rId258"/>
+    <hyperlink ref="F139" r:id="rId259"/>
+    <hyperlink ref="H139" r:id="rId260"/>
+    <hyperlink ref="F140" r:id="rId261"/>
+    <hyperlink ref="H140" r:id="rId262"/>
+    <hyperlink ref="F141" r:id="rId263"/>
+    <hyperlink ref="H141" r:id="rId264"/>
+    <hyperlink ref="F142" r:id="rId265"/>
+    <hyperlink ref="H142" r:id="rId266"/>
+    <hyperlink ref="F144" r:id="rId267"/>
+    <hyperlink ref="H144" r:id="rId268"/>
+    <hyperlink ref="F145" r:id="rId269"/>
+    <hyperlink ref="H145" r:id="rId270"/>
+    <hyperlink ref="F147" r:id="rId271"/>
+    <hyperlink ref="H147" r:id="rId272"/>
+    <hyperlink ref="F148" r:id="rId273"/>
+    <hyperlink ref="H148" r:id="rId274"/>
+    <hyperlink ref="F149" r:id="rId275"/>
+    <hyperlink ref="H149" r:id="rId276"/>
+    <hyperlink ref="F150" r:id="rId277"/>
+    <hyperlink ref="H150" r:id="rId278"/>
+    <hyperlink ref="F151" r:id="rId279"/>
+    <hyperlink ref="H151" r:id="rId280"/>
+    <hyperlink ref="F152" r:id="rId281"/>
+    <hyperlink ref="H152" r:id="rId282"/>
+    <hyperlink ref="F153" r:id="rId283"/>
+    <hyperlink ref="H153" r:id="rId284"/>
+    <hyperlink ref="F154" r:id="rId285"/>
+    <hyperlink ref="H154" r:id="rId286"/>
+    <hyperlink ref="F155" r:id="rId287"/>
+    <hyperlink ref="H155" r:id="rId288"/>
+    <hyperlink ref="F156" r:id="rId289"/>
+    <hyperlink ref="H156" r:id="rId290"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
